--- a/Framework/Config/Accept.xlsx
+++ b/Framework/Config/Accept.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gkmars\Documents\offer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gkmars\git\Framework1\Framework\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CACB32E-3DBE-4A2F-9AD3-A7F969496D78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C1D2AB-8FDB-467B-9318-5D11F71B8892}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <t>7401764529</t>
   </si>
   <si>
-    <t>Gkmars@1234</t>
+    <t>Gkmars@12345</t>
   </si>
 </sst>
 </file>
@@ -871,7 +871,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
